--- a/data/trans_camb/P55_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P55_2-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-16,89</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.524905842279104</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-14.01967848538456</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.278905512332798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 18,83</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-41,52; -0,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-28,7; 3,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.95847598762</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-36.13285862943808</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-23.76379579601986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,71%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-18,14%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,85%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.6545787782468</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2856211764650546</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.077177190855368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 23,72</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-44,14; -0,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-30,33; 3,6</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.06084997042919034</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1503927355147754</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.05732495742525621</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.05272360957943023</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3841941162693288</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2535562189439717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 3,16</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,69; 0,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,29; 0,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2192278029882155</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.002364883274976808</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.04431641569331034</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,74%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,93%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,82%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.578115854793427</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.93444047056416</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.730151544996517</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 3,31</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,85; 0,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 0,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.026779456004199</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.15054882048681</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.365592746304012</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.342015880604909</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.6280507806895319</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.7090668578012401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 2,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 1,07</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 1,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.0163209018004891</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.04043448569524432</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.02814897845640387</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,77%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.07146912142321091</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.09367504920708127</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.06495595923820657</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 3,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 1,08</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 1,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.03550988655841808</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.005806292030055651</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.007449693197598384</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.9399193731295052</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.06594460335179742</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.4883033942698178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-4.45977434262298</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.839349788020105</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.580064560452342</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2.301133006972374</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.023294762633741</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.127396806279287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.009543640242757549</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.000662797590881861</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.004930679517445154</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.044989277729867</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.01871990156494582</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.02599685624040185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 3,13</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-12,97; -1,74</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; -0,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.02374429685029942</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.01033395054786555</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.0114456361121672</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,21%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-5,38%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-2,88%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.3555043540571234</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-4.768750475956685</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.630542406824876</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 3,32</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-13,45; -1,79</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; -0,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.692191283851521</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-10.44199056788318</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.924945656818799</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.043276404603169</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-1.32485091496122</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.2162957831301208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.003684378121705488</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.04888914684663727</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.0271106149460938</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.03790358482584458</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1079708145911713</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.06088872951079016</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.03233798312419489</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.01363888942513055</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.002350698095073175</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
